--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_0_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_0_sine_0.1_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.47000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.149391775674303e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>1.409807015397024e-15</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>3.21241161012888e-12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.31455062890494</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.08262378809824</v>
+        <v>39.06952453244617</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[34.14147021528588, 54.0237773609106]</t>
+          <t>[28.35602567676036, 49.78302338813199]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.435740415445252e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>2.871480830890505e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.528342372016656</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.7925003128590404]</t>
+          <t>[1.0755001877154244, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="S2" t="n">
-        <v>61.34106066516591</v>
+        <v>56.84293922338828</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.84929965199881, 67.832821678333]</t>
+          <t>[50.29717234672082, 63.388706100055735]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.274594594595</v>
+        <v>19.85885885885929</v>
       </c>
       <c r="X2" t="n">
-        <v>18.20378378378417</v>
+        <v>18.58258258258298</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.34540540540583</v>
+        <v>21.13513513513559</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.70000000000042</v>
+        <v>23.62000000000025</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.113570013977494e-09</v>
+        <v>5.433292260548228e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>2.81161474031104e-09</v>
+        <v>1.486545953412485e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>39.06713267102754</v>
+        <v>40.05319326779832</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[24.085197600526737, 54.04906774152835]</t>
+          <t>[23.785787600284067, 56.320598935312574]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>8.410144776149764e-07</v>
+        <v>2.988230624723087e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>8.410144776149764e-07</v>
+        <v>2.988230624723087e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8868159442565782</v>
+        <v>-0.8050527720910781</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5220264069028078, 1.2516054816103486]</t>
+          <t>[-1.2075791581366175, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.896523483204462e-06</v>
+        <v>0.0001212246300852371</v>
       </c>
       <c r="R3" t="n">
-        <v>3.896523483204462e-06</v>
+        <v>0.0001212246300852371</v>
       </c>
       <c r="S3" t="n">
-        <v>62.28046955764004</v>
+        <v>64.17670327655622</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.495988266363824, 70.06495084891625]</t>
+          <t>[55.65597351141869, 72.69743304169376]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.21381381381418</v>
+        <v>3.026386386386417</v>
       </c>
       <c r="X3" t="n">
-        <v>19.77977977978012</v>
+        <v>1.513193193193206</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.64784784784824</v>
+        <v>4.539579579579628</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_0_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_0_sine_0.1_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.50000000000055</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.149391775674303e-13</v>
+        <v>8.893774605667204e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.21241161012888e-12</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.31455062890494</v>
-      </c>
+        <v>5.381718059699528e-10</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.06952453244617</v>
+        <v>37.49026211093405</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[28.35602567676036, 49.78302338813199]</t>
+          <t>[25.69493497117608, 49.28558925069203]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.435740415445252e-11</v>
+        <v>2.398976794992791e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.871480830890505e-11</v>
+        <v>4.797953589985582e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.389973926813502</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 1.7044476659115793]</t>
+          <t>[1.4151318259413488, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>56.84293922338828</v>
+        <v>61.9895369798017</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.29717234672082, 63.388706100055735]</t>
+          <t>[55.150143966182526, 68.82892999342087]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.85885885885929</v>
+        <v>18.73153153153198</v>
       </c>
       <c r="X2" t="n">
-        <v>18.58258258258298</v>
+        <v>17.32666666666708</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.13513513513559</v>
+        <v>20.13639639639688</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.62000000000025</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.433292260548228e-09</v>
+        <v>0.0002100015450128279</v>
       </c>
       <c r="H3" t="n">
-        <v>1.486545953412485e-08</v>
+        <v>0.0005059668356657182</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.05319326779832</v>
+        <v>25.10833891852561</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[23.785787600284067, 56.320598935312574]</t>
+          <t>[8.982140762078366, 41.234537074972856]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.988230624723087e-06</v>
+        <v>0.002504294642670768</v>
       </c>
       <c r="N3" t="n">
-        <v>2.988230624723087e-06</v>
+        <v>0.002504294642670768</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.8050527720910781</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.2075791581366175, -0.4025263860455386]</t>
+          <t>[-1.6101055441821561, -0.37736848691769254]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001212246300852371</v>
+        <v>0.001768951437989497</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0001212246300852371</v>
+        <v>0.001768951437989497</v>
       </c>
       <c r="S3" t="n">
-        <v>64.17670327655622</v>
+        <v>54.81888998480554</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.65597351141869, 72.69743304169376]</t>
+          <t>[46.47324136853631, 63.16453860107477]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.026386386386417</v>
+        <v>3.711971971972009</v>
       </c>
       <c r="X3" t="n">
-        <v>1.513193193193206</v>
+        <v>1.409609609609623</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.539579579579628</v>
+        <v>6.014334334334395</v>
       </c>
     </row>
   </sheetData>
